--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Orlikowski.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Orlikowski.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,130 +463,729 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:24:02.06</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.52182476852</v>
       </c>
       <c r="B2" t="n">
+        <v>5570.6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.665835210255213</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687.52267893519</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5644.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.915400028228759</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45687.52400185185</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5758.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.72889804840088</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.5218224537</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5570.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.422962733677455</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.52267662037</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5644.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.595019442694526</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.52399953704</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5758.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.477992262159077</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59258171296</v>
+      </c>
+      <c r="B8" t="n">
+        <v>599</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.793306521006993</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59327731482</v>
+      </c>
+      <c r="B9" t="n">
+        <v>659.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.448943887438093</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59392893519</v>
+      </c>
+      <c r="B10" t="n">
+        <v>715.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.541927678244454</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59257824074</v>
+      </c>
+      <c r="B11" t="n">
+        <v>598.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.337233253887721</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59327268518</v>
+      </c>
+      <c r="B12" t="n">
+        <v>658.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.060739278793335</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59392430555</v>
+      </c>
+      <c r="B13" t="n">
+        <v>715</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.98479664325714</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59989421297</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1230.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.927401304244994</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60002384259</v>
+      </c>
+      <c r="B15" t="n">
         <v>1242</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C15" t="n">
         <v>13.71</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D15" t="n">
         <v>3.556057657514301</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:56:47.76</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3207.7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.651980842862812</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 15:01:47.96</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3507.9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.33935649054391</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:27:40.26</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60255162037</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1460.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.936538662229266</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59989189815</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1230.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.697639737810408</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.60002037037</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1241.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.703704352889744</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.60254930556</v>
+      </c>
+      <c r="B19" t="n">
         <v>1460.2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C19" t="n">
         <v>9.02</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D19" t="n">
         <v>2.836862632206507</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:36:11.66</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1971.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.820554597037177</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:39:16.76</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2156.7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.869034358433316</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45686.47546875</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1127.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.524911114147731</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45686.47581597222</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1157.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.467664991106306</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45686.47894675926</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1427.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1286375863211494</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45686.47581018518</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1156.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.25131515094212</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686.47600462963</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1173.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.131598114967346</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45686.47736342593</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1291.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.695589695658001</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45686.48793865741</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2204.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.508219480514526</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45686.49189467593</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2546.6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.412879432950701</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45686.49257060185</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2605</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.388497250420707</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45686.48760300926</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2175.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.604264395577566</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45686.49256712963</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2604.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.62839503799166</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45686.49376851852</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2708.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.636005248342241</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
